--- a/REGULAR/CHO/LEGASPI, DOLORES.xlsx
+++ b/REGULAR/CHO/LEGASPI, DOLORES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CHO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8139AB8-7C74-47D5-9B09-87727F9F71CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="PERMANENT LEAVE BALANCE" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'CASUAL LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'PERMANENT LEAVE BALANCE'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="297">
   <si>
     <t>PERIOD</t>
   </si>
@@ -916,12 +915,24 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>10/23-25/2023</t>
+  </si>
+  <si>
+    <t>01/02-05,08/2023</t>
+  </si>
+  <si>
+    <t>VL(9-0-0)</t>
+  </si>
+  <si>
+    <t>12/18-22,26-29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1855,7 +1866,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1872,25 +1883,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K430" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K431" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1902,25 +1913,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C7827A5F-F4C8-4A04-AFA9-50C697454812}" name="Table13" displayName="Table13" ref="A8:K45" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K45" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{77782BBF-9B1C-4658-8091-A5E6BC2548C6}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{BFCA29C6-C987-4A8A-B067-D39D30A9A288}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7F91DBBD-90D9-4506-8A93-8F73B7D6884A}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{454DBC45-AFBC-43FC-B89C-24DF36565346}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{28B3AEC0-1780-45C5-AFC7-6642171D1121}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D8C0CA9C-DD35-4BD9-8424-4843167191CD}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{D7438EF5-85E1-477E-9ACD-5D8B866E81A7}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E14C83E3-B5D0-4D72-83F1-88A8A58E19F4}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{4A509819-ECFE-471A-BF1D-8528DB72800F}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A8BE7E29-B5BC-4287-BAD7-9EB7F3F1B63E}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{77D0383F-B8FE-489F-A09E-CA6639A90583}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2227,34 +2238,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K430"/>
+  <dimension ref="A2:K431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2520"/>
+      <pane ySplit="4425" topLeftCell="A415" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="H423" sqref="H423"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2275,7 +2286,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2295,7 +2306,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2315,7 +2326,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2323,7 +2334,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2336,7 +2347,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -2353,7 +2364,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2397,7 +2408,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>35.841000000000122</v>
+        <v>18.841000000000122</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2412,7 +2423,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>89</v>
       </c>
@@ -2430,7 +2441,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="52"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>36341</v>
       </c>
@@ -2450,7 +2461,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>36372</v>
       </c>
@@ -2476,7 +2487,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>36403</v>
       </c>
@@ -2496,7 +2507,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>36433</v>
       </c>
@@ -2516,7 +2527,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>36464</v>
       </c>
@@ -2540,7 +2551,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>36494</v>
       </c>
@@ -2560,7 +2571,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>36525</v>
       </c>
@@ -2584,7 +2595,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>98</v>
       </c>
@@ -2602,7 +2613,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>36556</v>
       </c>
@@ -2626,7 +2637,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>36585</v>
       </c>
@@ -2646,7 +2657,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>36616</v>
       </c>
@@ -2666,7 +2677,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>36646</v>
       </c>
@@ -2686,7 +2697,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>36677</v>
       </c>
@@ -2706,7 +2717,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>36707</v>
       </c>
@@ -2730,7 +2741,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>36738</v>
       </c>
@@ -2750,7 +2761,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>36769</v>
       </c>
@@ -2770,7 +2781,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>36799</v>
       </c>
@@ -2790,7 +2801,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>36830</v>
       </c>
@@ -2814,7 +2825,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>36860</v>
       </c>
@@ -2834,7 +2845,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>104</v>
@@ -2851,7 +2862,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>36891</v>
       </c>
@@ -2875,7 +2886,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>106</v>
       </c>
@@ -2893,7 +2904,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>36922</v>
       </c>
@@ -2913,7 +2924,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>36950</v>
       </c>
@@ -2937,7 +2948,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>36981</v>
       </c>
@@ -2957,7 +2968,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>37011</v>
       </c>
@@ -2977,7 +2988,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>37042</v>
       </c>
@@ -3003,7 +3014,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>37072</v>
       </c>
@@ -3023,7 +3034,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>37103</v>
       </c>
@@ -3043,7 +3054,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>37134</v>
       </c>
@@ -3063,7 +3074,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>37164</v>
       </c>
@@ -3083,7 +3094,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>37195</v>
       </c>
@@ -3103,7 +3114,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>37225</v>
       </c>
@@ -3129,7 +3140,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>51</v>
@@ -3148,7 +3159,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>37256</v>
       </c>
@@ -3168,7 +3179,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>107</v>
       </c>
@@ -3186,7 +3197,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>37287</v>
       </c>
@@ -3206,7 +3217,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>37315</v>
       </c>
@@ -3226,7 +3237,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>37346</v>
       </c>
@@ -3250,7 +3261,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>37376</v>
       </c>
@@ -3274,7 +3285,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>37407</v>
       </c>
@@ -3294,7 +3305,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>37437</v>
       </c>
@@ -3320,7 +3331,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>37468</v>
       </c>
@@ -3348,7 +3359,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>37499</v>
       </c>
@@ -3372,7 +3383,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>37529</v>
       </c>
@@ -3392,7 +3403,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>37560</v>
       </c>
@@ -3416,7 +3427,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>37590</v>
       </c>
@@ -3436,7 +3447,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>37621</v>
       </c>
@@ -3460,7 +3471,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>108</v>
       </c>
@@ -3478,7 +3489,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>37652</v>
       </c>
@@ -3504,7 +3515,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>37680</v>
       </c>
@@ -3524,7 +3535,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>37711</v>
       </c>
@@ -3544,7 +3555,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>37741</v>
       </c>
@@ -3564,7 +3575,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>37772</v>
       </c>
@@ -3590,7 +3601,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>37802</v>
       </c>
@@ -3616,7 +3627,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>45</v>
@@ -3635,7 +3646,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>37833</v>
       </c>
@@ -3661,7 +3672,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>37864</v>
       </c>
@@ -3681,7 +3692,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>37894</v>
       </c>
@@ -3701,7 +3712,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>37925</v>
       </c>
@@ -3727,7 +3738,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>97</v>
@@ -3744,7 +3755,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>37955</v>
       </c>
@@ -3764,7 +3775,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>37986</v>
       </c>
@@ -3784,7 +3795,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
         <v>122</v>
       </c>
@@ -3802,7 +3813,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>38017</v>
       </c>
@@ -3828,7 +3839,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>45</v>
@@ -3847,7 +3858,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>38046</v>
       </c>
@@ -3873,7 +3884,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>38077</v>
       </c>
@@ -3893,7 +3904,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>38107</v>
       </c>
@@ -3919,7 +3930,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>38138</v>
       </c>
@@ -3939,7 +3950,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>38168</v>
       </c>
@@ -3959,7 +3970,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>38199</v>
       </c>
@@ -3979,7 +3990,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>38230</v>
       </c>
@@ -4005,7 +4016,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>38260</v>
       </c>
@@ -4025,7 +4036,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>38291</v>
       </c>
@@ -4045,7 +4056,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>38321</v>
       </c>
@@ -4065,7 +4076,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>38352</v>
       </c>
@@ -4091,7 +4102,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>70</v>
@@ -4111,7 +4122,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>123</v>
       </c>
@@ -4129,7 +4140,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>38383</v>
       </c>
@@ -4155,7 +4166,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>38411</v>
       </c>
@@ -4179,7 +4190,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>38442</v>
       </c>
@@ -4203,7 +4214,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>38472</v>
       </c>
@@ -4227,7 +4238,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>131</v>
@@ -4246,7 +4257,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>132</v>
@@ -4263,7 +4274,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>38503</v>
       </c>
@@ -4283,7 +4294,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>38533</v>
       </c>
@@ -4309,7 +4320,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>38564</v>
       </c>
@@ -4333,7 +4344,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>38595</v>
       </c>
@@ -4357,7 +4368,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>38625</v>
       </c>
@@ -4377,7 +4388,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>38656</v>
       </c>
@@ -4403,7 +4414,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>38686</v>
       </c>
@@ -4423,7 +4434,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>38717</v>
       </c>
@@ -4443,7 +4454,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>137</v>
       </c>
@@ -4461,7 +4472,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>38748</v>
       </c>
@@ -4487,7 +4498,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>129</v>
@@ -4504,7 +4515,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>38776</v>
       </c>
@@ -4528,7 +4539,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>38807</v>
       </c>
@@ -4554,7 +4565,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>140</v>
@@ -4571,7 +4582,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>38837</v>
       </c>
@@ -4595,7 +4606,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>38868</v>
       </c>
@@ -4621,7 +4632,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>143</v>
@@ -4638,7 +4649,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>38898</v>
       </c>
@@ -4662,7 +4673,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>38929</v>
       </c>
@@ -4688,7 +4699,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>38960</v>
       </c>
@@ -4708,7 +4719,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>38990</v>
       </c>
@@ -4732,7 +4743,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>39021</v>
       </c>
@@ -4756,7 +4767,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>39051</v>
       </c>
@@ -4782,7 +4793,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>145</v>
@@ -4801,7 +4812,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>146</v>
@@ -4818,7 +4829,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>39082</v>
       </c>
@@ -4842,7 +4853,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>150</v>
       </c>
@@ -4860,7 +4871,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>39113</v>
       </c>
@@ -4884,7 +4895,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>39141</v>
       </c>
@@ -4908,7 +4919,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>39172</v>
       </c>
@@ -4932,7 +4943,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>39202</v>
       </c>
@@ -4956,7 +4967,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>45</v>
@@ -4975,7 +4986,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>48</v>
@@ -4994,7 +5005,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>48</v>
@@ -5013,7 +5024,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>156</v>
@@ -5030,7 +5041,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="55"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>39233</v>
       </c>
@@ -5056,7 +5067,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>131</v>
@@ -5075,7 +5086,7 @@
         <v>45074</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>39263</v>
       </c>
@@ -5095,7 +5106,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>39294</v>
       </c>
@@ -5115,7 +5126,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>39325</v>
       </c>
@@ -5139,7 +5150,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>39355</v>
       </c>
@@ -5165,7 +5176,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>133</v>
@@ -5182,7 +5193,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>39386</v>
       </c>
@@ -5206,7 +5217,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>39416</v>
       </c>
@@ -5230,7 +5241,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>39447</v>
       </c>
@@ -5254,7 +5265,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
         <v>164</v>
       </c>
@@ -5272,7 +5283,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>39478</v>
       </c>
@@ -5296,7 +5307,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>39507</v>
       </c>
@@ -5320,7 +5331,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>39538</v>
       </c>
@@ -5344,7 +5355,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>61</v>
@@ -5363,7 +5374,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>167</v>
@@ -5380,7 +5391,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>39568</v>
       </c>
@@ -5406,7 +5417,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>39599</v>
       </c>
@@ -5426,7 +5437,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>39629</v>
       </c>
@@ -5450,7 +5461,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>39660</v>
       </c>
@@ -5476,7 +5487,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>173</v>
@@ -5493,7 +5504,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>39691</v>
       </c>
@@ -5517,7 +5528,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>39721</v>
       </c>
@@ -5541,7 +5552,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>39752</v>
       </c>
@@ -5567,7 +5578,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>70</v>
@@ -5586,7 +5597,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>39782</v>
       </c>
@@ -5612,7 +5623,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>39813</v>
       </c>
@@ -5632,7 +5643,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="48" t="s">
         <v>177</v>
       </c>
@@ -5650,7 +5661,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>39844</v>
       </c>
@@ -5676,7 +5687,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>178</v>
@@ -5693,7 +5704,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>39872</v>
       </c>
@@ -5717,7 +5728,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>39903</v>
       </c>
@@ -5743,7 +5754,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>47</v>
@@ -5760,7 +5771,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>173</v>
@@ -5777,7 +5788,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>39933</v>
       </c>
@@ -5801,7 +5812,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>39964</v>
       </c>
@@ -5825,7 +5836,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>74</v>
@@ -5844,7 +5855,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>129</v>
@@ -5861,7 +5872,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>39994</v>
       </c>
@@ -5885,7 +5896,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>40025</v>
       </c>
@@ -5909,7 +5920,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>40056</v>
       </c>
@@ -5933,7 +5944,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>40086</v>
       </c>
@@ -5957,7 +5968,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>40117</v>
       </c>
@@ -5981,7 +5992,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>40147</v>
       </c>
@@ -6005,7 +6016,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>40178</v>
       </c>
@@ -6029,7 +6040,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="48" t="s">
         <v>186</v>
       </c>
@@ -6047,7 +6058,7 @@
       <c r="J176" s="2"/>
       <c r="K176" s="52"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>40209</v>
       </c>
@@ -6071,7 +6082,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>40237</v>
       </c>
@@ -6095,7 +6106,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>40268</v>
       </c>
@@ -6119,7 +6130,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>59</v>
@@ -6138,7 +6149,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>185</v>
@@ -6155,7 +6166,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>40298</v>
       </c>
@@ -6179,7 +6190,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>40329</v>
       </c>
@@ -6203,7 +6214,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>40359</v>
       </c>
@@ -6229,7 +6240,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>190</v>
@@ -6246,7 +6257,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>40390</v>
       </c>
@@ -6270,7 +6281,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>40421</v>
       </c>
@@ -6294,7 +6305,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>40451</v>
       </c>
@@ -6318,7 +6329,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>40482</v>
       </c>
@@ -6344,7 +6355,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>195</v>
@@ -6361,7 +6372,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>40512</v>
       </c>
@@ -6385,7 +6396,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>40543</v>
       </c>
@@ -6409,7 +6420,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="48" t="s">
         <v>197</v>
       </c>
@@ -6427,7 +6438,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>40574</v>
       </c>
@@ -6451,7 +6462,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>40602</v>
       </c>
@@ -6475,7 +6486,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>199</v>
@@ -6492,7 +6503,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>40633</v>
       </c>
@@ -6518,7 +6529,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>47</v>
@@ -6535,7 +6546,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>88</v>
@@ -6554,7 +6565,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>196</v>
@@ -6571,7 +6582,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>40663</v>
       </c>
@@ -6597,7 +6608,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>47</v>
@@ -6614,7 +6625,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>40694</v>
       </c>
@@ -6638,7 +6649,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <v>40724</v>
       </c>
@@ -6658,7 +6669,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>40755</v>
       </c>
@@ -6678,7 +6689,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>40786</v>
       </c>
@@ -6698,7 +6709,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>40816</v>
       </c>
@@ -6724,7 +6735,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>40847</v>
       </c>
@@ -6744,7 +6755,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>40877</v>
       </c>
@@ -6768,7 +6779,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>40908</v>
       </c>
@@ -6794,7 +6805,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>204</v>
@@ -6814,7 +6825,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="48" t="s">
         <v>213</v>
       </c>
@@ -6832,7 +6843,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>40939</v>
       </c>
@@ -6856,7 +6867,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>40968</v>
       </c>
@@ -6880,7 +6891,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>40999</v>
       </c>
@@ -6904,7 +6915,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>41029</v>
       </c>
@@ -6930,7 +6941,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>41060</v>
       </c>
@@ -6956,7 +6967,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>41090</v>
       </c>
@@ -6976,7 +6987,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>41121</v>
       </c>
@@ -6996,7 +7007,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>41152</v>
       </c>
@@ -7022,7 +7033,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>214</v>
@@ -7039,7 +7050,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>41182</v>
       </c>
@@ -7063,7 +7074,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>41213</v>
       </c>
@@ -7089,7 +7100,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>41243</v>
       </c>
@@ -7113,7 +7124,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>41274</v>
       </c>
@@ -7139,7 +7150,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>128</v>
@@ -7159,7 +7170,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="48" t="s">
         <v>219</v>
       </c>
@@ -7177,7 +7188,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>41305</v>
       </c>
@@ -7201,7 +7212,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>41333</v>
       </c>
@@ -7221,7 +7232,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>41364</v>
       </c>
@@ -7241,7 +7252,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>41394</v>
       </c>
@@ -7267,7 +7278,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>70</v>
@@ -7286,7 +7297,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>221</v>
@@ -7303,7 +7314,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>41425</v>
       </c>
@@ -7327,7 +7338,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>41455</v>
       </c>
@@ -7347,7 +7358,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>41486</v>
       </c>
@@ -7371,7 +7382,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>41517</v>
       </c>
@@ -7397,7 +7408,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>48</v>
@@ -7416,7 +7427,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>224</v>
@@ -7433,7 +7444,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>41547</v>
       </c>
@@ -7459,7 +7470,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>225</v>
@@ -7476,7 +7487,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>41578</v>
       </c>
@@ -7502,7 +7513,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>228</v>
@@ -7519,7 +7530,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>41608</v>
       </c>
@@ -7545,7 +7556,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>131</v>
@@ -7564,7 +7575,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>229</v>
@@ -7581,7 +7592,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>41639</v>
       </c>
@@ -7605,7 +7616,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>70</v>
@@ -7627,7 +7638,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>161</v>
@@ -7647,7 +7658,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="48" t="s">
         <v>233</v>
       </c>
@@ -7665,7 +7676,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>41670</v>
       </c>
@@ -7689,7 +7700,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>41698</v>
       </c>
@@ -7715,7 +7726,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>224</v>
@@ -7732,7 +7743,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>41729</v>
       </c>
@@ -7758,7 +7769,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>47</v>
@@ -7775,7 +7786,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>235</v>
@@ -7792,7 +7803,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>41759</v>
       </c>
@@ -7818,7 +7829,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>222</v>
@@ -7835,7 +7846,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>41790</v>
       </c>
@@ -7861,7 +7872,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>200</v>
@@ -7880,7 +7891,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>236</v>
@@ -7899,7 +7910,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>241</v>
@@ -7916,7 +7927,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>41820</v>
       </c>
@@ -7940,7 +7951,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>41851</v>
       </c>
@@ -7964,7 +7975,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>41882</v>
       </c>
@@ -7988,7 +7999,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>41912</v>
       </c>
@@ -8008,7 +8019,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>41943</v>
       </c>
@@ -8034,7 +8045,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>103</v>
@@ -8051,7 +8062,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>41973</v>
       </c>
@@ -8075,7 +8086,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>42004</v>
       </c>
@@ -8101,7 +8112,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>73</v>
@@ -8121,7 +8132,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>246</v>
@@ -8141,7 +8152,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="48" t="s">
         <v>250</v>
       </c>
@@ -8159,7 +8170,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>42035</v>
       </c>
@@ -8183,7 +8194,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>42063</v>
       </c>
@@ -8207,7 +8218,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>42094</v>
       </c>
@@ -8233,7 +8244,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>47</v>
@@ -8250,7 +8261,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>252</v>
@@ -8267,7 +8278,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>42124</v>
       </c>
@@ -8291,7 +8302,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>253</v>
@@ -8308,7 +8319,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>42155</v>
       </c>
@@ -8332,7 +8343,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>42185</v>
       </c>
@@ -8356,7 +8367,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>42216</v>
       </c>
@@ -8380,7 +8391,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>42247</v>
       </c>
@@ -8404,7 +8415,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>42277</v>
       </c>
@@ -8430,7 +8441,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>48</v>
@@ -8449,7 +8460,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>258</v>
@@ -8466,7 +8477,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>42308</v>
       </c>
@@ -8492,7 +8503,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>261</v>
@@ -8509,7 +8520,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>42338</v>
       </c>
@@ -8533,7 +8544,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>42369</v>
       </c>
@@ -8557,7 +8568,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="48" t="s">
         <v>263</v>
       </c>
@@ -8575,7 +8586,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>42400</v>
       </c>
@@ -8599,7 +8610,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>42429</v>
       </c>
@@ -8625,7 +8636,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>265</v>
@@ -8642,7 +8653,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>42460</v>
       </c>
@@ -8668,7 +8679,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>266</v>
@@ -8685,7 +8696,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>42490</v>
       </c>
@@ -8709,7 +8720,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>42521</v>
       </c>
@@ -8733,7 +8744,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>42551</v>
       </c>
@@ -8757,7 +8768,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>42582</v>
       </c>
@@ -8783,7 +8794,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>271</v>
@@ -8800,7 +8811,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>42613</v>
       </c>
@@ -8824,7 +8835,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>42643</v>
       </c>
@@ -8848,7 +8859,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>42674</v>
       </c>
@@ -8874,7 +8885,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>178</v>
@@ -8891,7 +8902,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>42704</v>
       </c>
@@ -8915,7 +8926,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>46</v>
@@ -8934,7 +8945,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>42735</v>
       </c>
@@ -8960,7 +8971,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>275</v>
@@ -8980,7 +8991,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="48" t="s">
         <v>279</v>
       </c>
@@ -8998,7 +9009,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>42766</v>
       </c>
@@ -9024,7 +9035,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>59</v>
@@ -9043,7 +9054,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>42794</v>
       </c>
@@ -9063,7 +9074,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>42825</v>
       </c>
@@ -9089,7 +9100,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>42855</v>
       </c>
@@ -9109,7 +9120,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>42886</v>
       </c>
@@ -9135,7 +9146,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>48</v>
@@ -9154,7 +9165,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>42916</v>
       </c>
@@ -9180,7 +9191,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>42947</v>
       </c>
@@ -9204,7 +9215,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>42978</v>
       </c>
@@ -9230,7 +9241,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>43008</v>
       </c>
@@ -9256,7 +9267,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>51</v>
@@ -9275,7 +9286,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>43039</v>
       </c>
@@ -9295,7 +9306,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <v>43069</v>
       </c>
@@ -9315,7 +9326,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>43100</v>
       </c>
@@ -9341,7 +9352,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>48</v>
@@ -9363,7 +9374,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="48" t="s">
         <v>44</v>
       </c>
@@ -9385,7 +9396,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43131</v>
       </c>
@@ -9405,7 +9416,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43159</v>
       </c>
@@ -9431,7 +9442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43190</v>
       </c>
@@ -9451,7 +9462,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>43220</v>
       </c>
@@ -9477,7 +9488,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43251</v>
       </c>
@@ -9501,7 +9512,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>45</v>
@@ -9520,7 +9531,7 @@
         <v>43230</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43281</v>
       </c>
@@ -9544,7 +9555,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>48</v>
@@ -9563,7 +9574,7 @@
         <v>43265</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>48</v>
@@ -9582,7 +9593,7 @@
         <v>43279</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43312</v>
       </c>
@@ -9608,7 +9619,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43343</v>
       </c>
@@ -9634,7 +9645,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>43373</v>
       </c>
@@ -9660,7 +9671,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>43404</v>
       </c>
@@ -9686,7 +9697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>51</v>
@@ -9705,7 +9716,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43434</v>
       </c>
@@ -9731,7 +9742,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>43465</v>
       </c>
@@ -9757,7 +9768,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="48" t="s">
         <v>57</v>
       </c>
@@ -9775,7 +9786,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>43496</v>
       </c>
@@ -9795,7 +9806,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>43524</v>
       </c>
@@ -9815,7 +9826,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>43555</v>
       </c>
@@ -9841,7 +9852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>47</v>
@@ -9858,7 +9869,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43585</v>
       </c>
@@ -9884,7 +9895,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>61</v>
@@ -9903,7 +9914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43616</v>
       </c>
@@ -9923,7 +9934,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43646</v>
       </c>
@@ -9949,7 +9960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43677</v>
       </c>
@@ -9975,7 +9986,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43708</v>
       </c>
@@ -9995,7 +10006,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>43738</v>
       </c>
@@ -10021,7 +10032,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>43769</v>
       </c>
@@ -10047,7 +10058,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>43799</v>
       </c>
@@ -10073,7 +10084,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>43830</v>
       </c>
@@ -10093,7 +10104,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="48" t="s">
         <v>58</v>
       </c>
@@ -10111,7 +10122,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>43861</v>
       </c>
@@ -10131,7 +10142,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>43890</v>
       </c>
@@ -10151,7 +10162,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>43921</v>
       </c>
@@ -10171,7 +10182,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>43951</v>
       </c>
@@ -10191,7 +10202,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>43982</v>
       </c>
@@ -10211,7 +10222,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44012</v>
       </c>
@@ -10231,7 +10242,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44043</v>
       </c>
@@ -10251,7 +10262,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44074</v>
       </c>
@@ -10271,7 +10282,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44104</v>
       </c>
@@ -10297,7 +10308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>45</v>
@@ -10316,7 +10327,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44135</v>
       </c>
@@ -10336,7 +10347,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44165</v>
       </c>
@@ -10356,7 +10367,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44196</v>
       </c>
@@ -10382,7 +10393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>70</v>
@@ -10402,7 +10413,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="48" t="s">
         <v>72</v>
       </c>
@@ -10420,7 +10431,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44227</v>
       </c>
@@ -10440,7 +10451,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44255</v>
       </c>
@@ -10466,7 +10477,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44286</v>
       </c>
@@ -10486,7 +10497,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44316</v>
       </c>
@@ -10510,7 +10521,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44347</v>
       </c>
@@ -10530,7 +10541,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>44377</v>
       </c>
@@ -10550,7 +10561,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44408</v>
       </c>
@@ -10570,7 +10581,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44439</v>
       </c>
@@ -10590,7 +10601,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44469</v>
       </c>
@@ -10610,7 +10621,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>44500</v>
       </c>
@@ -10636,7 +10647,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>44530</v>
       </c>
@@ -10660,7 +10671,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>44561</v>
       </c>
@@ -10684,7 +10695,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="48" t="s">
         <v>76</v>
       </c>
@@ -10702,7 +10713,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>44592</v>
       </c>
@@ -10722,7 +10733,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>44620</v>
       </c>
@@ -10742,7 +10753,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>44651</v>
       </c>
@@ -10766,7 +10777,7 @@
         <v>44623</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>45</v>
@@ -10785,7 +10796,7 @@
         <v>44636</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>45</v>
@@ -10804,7 +10815,7 @@
         <v>44636</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>44681</v>
       </c>
@@ -10828,7 +10839,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>288</v>
@@ -10850,7 +10861,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>44712</v>
       </c>
@@ -10874,7 +10885,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -10893,7 +10904,7 @@
         <v>44722</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>44742</v>
       </c>
@@ -10919,7 +10930,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>60</v>
@@ -10938,7 +10949,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>116</v>
@@ -10958,7 +10969,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>44773</v>
       </c>
@@ -10982,7 +10993,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>44804</v>
       </c>
@@ -11008,7 +11019,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>78</v>
@@ -11027,7 +11038,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>44834</v>
       </c>
@@ -11053,7 +11064,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>44865</v>
       </c>
@@ -11079,7 +11090,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>44895</v>
       </c>
@@ -11099,7 +11110,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>44926</v>
       </c>
@@ -11125,7 +11136,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>288</v>
@@ -11147,7 +11158,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>289</v>
@@ -11167,7 +11178,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="49"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="48" t="s">
         <v>80</v>
       </c>
@@ -11185,7 +11196,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>44957</v>
       </c>
@@ -11211,7 +11222,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>44985</v>
       </c>
@@ -11231,7 +11242,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>45016</v>
       </c>
@@ -11255,7 +11266,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>45046</v>
       </c>
@@ -11281,7 +11292,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>45077</v>
       </c>
@@ -11307,7 +11318,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>45107</v>
       </c>
@@ -11327,7 +11338,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>45138</v>
       </c>
@@ -11347,7 +11358,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>45169</v>
       </c>
@@ -11373,7 +11384,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>45199</v>
       </c>
@@ -11393,15 +11404,19 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>45230</v>
       </c>
-      <c r="B420" s="20"/>
+      <c r="B420" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C420" s="13">
         <v>1.25</v>
       </c>
-      <c r="D420" s="39"/>
+      <c r="D420" s="39">
+        <v>3</v>
+      </c>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
       <c r="G420" s="13">
@@ -11411,17 +11426,23 @@
       <c r="H420" s="39"/>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
-      <c r="K420" s="20"/>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K420" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>45260</v>
       </c>
-      <c r="B421" s="20"/>
+      <c r="B421" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C421" s="13">
         <v>1.25</v>
       </c>
-      <c r="D421" s="39"/>
+      <c r="D421" s="39">
+        <v>5</v>
+      </c>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
       <c r="G421" s="13">
@@ -11431,69 +11452,70 @@
       <c r="H421" s="39"/>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
-      <c r="K421" s="20"/>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A422" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B422" s="20"/>
-      <c r="C422" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D422" s="39"/>
+      <c r="K421" s="20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="40"/>
+      <c r="B422" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C422" s="13"/>
+      <c r="D422" s="39">
+        <v>9</v>
+      </c>
       <c r="E422" s="9"/>
       <c r="F422" s="20"/>
-      <c r="G422" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G422" s="13"/>
       <c r="H422" s="39"/>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="20"/>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A423" s="48" t="s">
-        <v>292</v>
+      <c r="K422" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="40">
+        <v>45291</v>
       </c>
       <c r="B423" s="20"/>
-      <c r="C423" s="13"/>
+      <c r="C423" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D423" s="39"/>
       <c r="E423" s="9"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G423" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H423" s="39"/>
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A424" s="40">
-        <v>45322</v>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="48" t="s">
+        <v>292</v>
       </c>
       <c r="B424" s="20"/>
-      <c r="C424" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C424" s="13"/>
       <c r="D424" s="39"/>
       <c r="E424" s="9"/>
       <c r="F424" s="20"/>
-      <c r="G424" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G424" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H424" s="39"/>
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13">
@@ -11511,9 +11533,9 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13">
@@ -11531,9 +11553,9 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13">
@@ -11551,9 +11573,9 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13">
@@ -11571,9 +11593,9 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13">
@@ -11591,9 +11613,9 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13">
@@ -11610,6 +11632,26 @@
       <c r="I430" s="9"/>
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B431" s="20"/>
+      <c r="C431" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D431" s="39"/>
+      <c r="E431" s="9"/>
+      <c r="F431" s="20"/>
+      <c r="G431" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H431" s="39"/>
+      <c r="I431" s="9"/>
+      <c r="J431" s="11"/>
+      <c r="K431" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11626,10 +11668,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11652,7 +11694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99E7123-9F75-430B-B55C-61CCAFEB0FED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11664,22 +11706,22 @@
       <selection pane="bottomLeft" activeCell="I44" sqref="I44:K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -11700,7 +11742,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -11720,7 +11762,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -11740,7 +11782,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -11748,7 +11790,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -11761,7 +11803,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -11778,7 +11820,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -11813,7 +11855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -11837,7 +11879,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>84</v>
       </c>
@@ -11852,7 +11894,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>35591</v>
       </c>
@@ -11872,7 +11914,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>35612</v>
       </c>
@@ -11892,7 +11934,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>35643</v>
@@ -11913,7 +11955,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>35674</v>
@@ -11934,7 +11976,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" ref="A15:A17" si="0">EDATE(A14,1)</f>
         <v>35704</v>
@@ -11955,7 +11997,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -11976,7 +12018,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -11997,7 +12039,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>85</v>
       </c>
@@ -12015,7 +12057,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f>EDATE(A17,1)</f>
         <v>35796</v>
@@ -12036,7 +12078,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f>EDATE(A19,1)</f>
         <v>35827</v>
@@ -12057,7 +12099,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" ref="A21:A29" si="1">EDATE(A20,1)</f>
         <v>35855</v>
@@ -12078,7 +12120,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -12099,7 +12141,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -12128,7 +12170,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -12149,7 +12191,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -12170,7 +12212,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -12191,7 +12233,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -12212,7 +12254,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -12233,7 +12275,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="1"/>
         <v>36100</v>
@@ -12260,7 +12302,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f>EDATE(A29,1)</f>
         <v>36130</v>
@@ -12281,7 +12323,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>89</v>
       </c>
@@ -12299,7 +12341,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="52"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f>EDATE(A30,1)</f>
         <v>36161</v>
@@ -12320,7 +12362,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f>EDATE(A32,1)</f>
         <v>36192</v>
@@ -12341,7 +12383,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f>EDATE(A33,1)</f>
         <v>36220</v>
@@ -12362,7 +12404,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" ref="A35:A36" si="2">EDATE(A34,1)</f>
         <v>36251</v>
@@ -12383,7 +12425,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f t="shared" si="2"/>
         <v>36281</v>
@@ -12404,7 +12446,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>36312</v>
       </c>
@@ -12428,7 +12470,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>36373</v>
       </c>
@@ -12452,7 +12494,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>98</v>
       </c>
@@ -12470,7 +12512,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36616</v>
       </c>
@@ -12494,7 +12536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>49</v>
@@ -12519,7 +12561,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36677</v>
       </c>
@@ -12543,7 +12585,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
         <v>108</v>
       </c>
@@ -12561,7 +12603,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f>EOMONTH(A43,1)</f>
         <v>2039</v>
@@ -12583,7 +12625,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="15"/>
       <c r="C45" s="42"/>
@@ -12598,23 +12640,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{EE733BEA-509B-49FF-9952-20021007E64F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{1404C224-C7E7-42FA-91F9-0681F5CDEAA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12637,28 +12679,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -12671,7 +12713,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12700,7 +12742,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -12726,17 +12768,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12757,7 +12799,7 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12784,7 +12826,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12810,7 +12852,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12836,7 +12878,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12862,7 +12904,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12888,7 +12930,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12914,7 +12956,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12940,7 +12982,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12966,7 +13008,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12986,7 +13028,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13006,7 +13048,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13026,7 +13068,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13047,7 +13089,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13068,7 +13110,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13089,7 +13131,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13110,7 +13152,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13131,7 +13173,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13152,7 +13194,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13173,7 +13215,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13194,7 +13236,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13215,7 +13257,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13236,7 +13278,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13257,7 +13299,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13278,7 +13320,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13299,7 +13341,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13320,7 +13362,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13341,7 +13383,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13362,7 +13404,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13383,7 +13425,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13404,7 +13446,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13425,7 +13467,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13446,7 +13488,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13455,7 +13497,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13464,7 +13506,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13473,7 +13515,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13482,7 +13524,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13491,7 +13533,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13500,7 +13542,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13509,7 +13551,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13518,7 +13560,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13527,7 +13569,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13536,7 +13578,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13545,7 +13587,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13554,7 +13596,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13563,7 +13605,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13572,7 +13614,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13581,7 +13623,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13590,7 +13632,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13599,7 +13641,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13608,7 +13650,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13617,7 +13659,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13626,7 +13668,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13635,7 +13677,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13644,7 +13686,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13653,7 +13695,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13662,7 +13704,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13671,7 +13713,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13680,7 +13722,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13689,7 +13731,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13698,7 +13740,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13707,7 +13749,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
